--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,90 +43,96 @@
     <t>kill</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -139,205 +145,217 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -695,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,16 +803,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8321917808219178</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.925</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7631578947368421</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,16 +1153,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,16 +1253,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.9007832898172323</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6111111111111112</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1414,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.582010582010582</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8867924528301887</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1456,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1506,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5077519379844961</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C18">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="D18">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1532,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8661971830985915</v>
+        <v>0.8625</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1556,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -1582,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8636363636363636</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1606,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1632,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1656,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1682,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4363636363636363</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,19 +1700,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1706,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1714,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3866666666666667</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.8536585365853658</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L22">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1756,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3783783783783784</v>
+        <v>0.40625</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.84375</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L23">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3728813559322034</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1856,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3557046979865772</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1882,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.8333333333333334</v>
+        <v>0.82</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1906,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,13 +1932,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1956,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +1982,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3392857142857143</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2014,7 +2032,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2077922077922078</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -2032,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.8181818181818182</v>
+        <v>0.8125</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2056,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2064,13 +2082,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2082,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.8095238095238095</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2106,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2114,13 +2132,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1150793650793651</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2132,19 +2150,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.8</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2156,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2164,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08042895442359249</v>
+        <v>0.1625</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2182,19 +2200,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2206,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2214,37 +2232,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01230569948186529</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3050</v>
+        <v>337</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2256,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2264,37 +2282,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009345794392523364</v>
+        <v>0.06</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2120</v>
+        <v>282</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.78</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2306,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2314,37 +2332,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006626696118649416</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E34">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="F34">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>3148</v>
+        <v>3036</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.775</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2353,24 +2371,48 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.01319509896324222</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>0.43</v>
+      </c>
+      <c r="F35">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2094</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.7407407407407407</v>
+        <v>0.7147058823529412</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,15 +2424,39 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.007310870947234584</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>0.71</v>
+      </c>
+      <c r="F36">
+        <v>0.29</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3123</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.7391304347826086</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L36">
         <v>17</v>
@@ -2408,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.7382352941176471</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L37">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2434,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2460,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.7254237288135593</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L39">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2486,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.7238493723849372</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L40">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2512,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.7083333333333334</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2538,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2564,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.6862745098039216</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2590,12 +2656,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K44">
         <v>0.6785714285714286</v>
@@ -2621,16 +2687,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.6714285714285714</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2642,21 +2708,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.6595744680851063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2668,21 +2734,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.6307692307692307</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2699,16 +2765,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2720,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2746,21 +2812,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.5955056179775281</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L50">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2772,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.5769230769230769</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2798,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2824,12 +2890,12 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K53">
         <v>0.5652173913043478</v>
@@ -2855,16 +2921,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2876,12 +2942,12 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>0.5416666666666666</v>
@@ -2907,16 +2973,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.5357142857142857</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2928,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.5357142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2954,21 +3020,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.515625</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2980,21 +3046,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.5128205128205128</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3006,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.5111111111111111</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3032,21 +3098,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.4520547945205479</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L61">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3058,21 +3124,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.3220338983050847</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3084,21 +3150,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.2631578947368421</v>
+        <v>0.40625</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3110,21 +3176,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.2083333333333333</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3136,21 +3202,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.1192660550458716</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3162,21 +3228,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K66">
-        <v>0.06493506493506493</v>
+        <v>0.25</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3188,47 +3254,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>288</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K67">
-        <v>0.03614457831325301</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>400</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K68">
-        <v>0.03349282296650718</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3240,21 +3306,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>404</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K69">
-        <v>0.01553829078801332</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3266,59 +3332,189 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>887</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="K70">
-        <v>0.01006289308176101</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L70">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>3148</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="K71">
-        <v>0.006190941674812643</v>
+        <v>0.04337349397590361</v>
       </c>
       <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
         <v>19</v>
       </c>
-      <c r="M71">
-        <v>57</v>
-      </c>
       <c r="N71">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.6699999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>3050</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K72">
+        <v>0.02</v>
+      </c>
+      <c r="L72">
+        <v>18</v>
+      </c>
+      <c r="M72">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>0.95</v>
+      </c>
+      <c r="O72">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73">
+        <v>0.01730648206419132</v>
+      </c>
+      <c r="L73">
+        <v>55</v>
+      </c>
+      <c r="M73">
+        <v>78</v>
+      </c>
+      <c r="N73">
+        <v>0.71</v>
+      </c>
+      <c r="O73">
+        <v>0.29</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74">
+        <v>0.01349948078920041</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>18</v>
+      </c>
+      <c r="N74">
+        <v>0.72</v>
+      </c>
+      <c r="O74">
+        <v>0.28</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75">
+        <v>0.009929078014184398</v>
+      </c>
+      <c r="L75">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <v>49</v>
+      </c>
+      <c r="N75">
+        <v>0.43</v>
+      </c>
+      <c r="O75">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76">
+        <v>0.00556829348182116</v>
+      </c>
+      <c r="L76">
+        <v>17</v>
+      </c>
+      <c r="M76">
+        <v>71</v>
+      </c>
+      <c r="N76">
+        <v>0.24</v>
+      </c>
+      <c r="O76">
+        <v>0.76</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3036</v>
       </c>
     </row>
   </sheetData>
